--- a/It201819/DEtailed Calculation/sunny routh.xlsx
+++ b/It201819/DEtailed Calculation/sunny routh.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hp1\Desktop\It201819\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hp1\Desktop\It201819\DEtailed Calculation\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -14,6 +14,9 @@
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">Sheet1!$A$1:$K$59</definedName>
+  </definedNames>
   <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -24,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="52">
   <si>
     <t>month</t>
   </si>
@@ -99,13 +102,94 @@
   </si>
   <si>
     <t>CEA</t>
+  </si>
+  <si>
+    <t>80ccd(1B)</t>
+  </si>
+  <si>
+    <t>less Rebate</t>
+  </si>
+  <si>
+    <t>hbi</t>
+  </si>
+  <si>
+    <t>amount</t>
+  </si>
+  <si>
+    <t>admissible</t>
+  </si>
+  <si>
+    <t>rent</t>
+  </si>
+  <si>
+    <t>LIP</t>
+  </si>
+  <si>
+    <t>FD</t>
+  </si>
+  <si>
+    <t>ELSS</t>
+  </si>
+  <si>
+    <t>PPF</t>
+  </si>
+  <si>
+    <t>PLI</t>
+  </si>
+  <si>
+    <t>NSC</t>
+  </si>
+  <si>
+    <t>NPS</t>
+  </si>
+  <si>
+    <t>Other</t>
+  </si>
+  <si>
+    <t>TOTAL</t>
+  </si>
+  <si>
+    <t>CGHS</t>
+  </si>
+  <si>
+    <t>MEDICLAIM</t>
+  </si>
+  <si>
+    <t>80EE</t>
+  </si>
+  <si>
+    <t>80G</t>
+  </si>
+  <si>
+    <t>80U</t>
+  </si>
+  <si>
+    <t>Total Savings</t>
+  </si>
+  <si>
+    <t>Tax Paid</t>
+  </si>
+  <si>
+    <t>HBL</t>
+  </si>
+  <si>
+    <t>arrear</t>
+  </si>
+  <si>
+    <t>LTC LE</t>
+  </si>
+  <si>
+    <t>rop</t>
+  </si>
+  <si>
+    <t>GIS</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -121,16 +205,60 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="2" tint="-9.9978637043366805E-2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF9B9B"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF92D050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -138,21 +266,80 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="17" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="17" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <mruColors>
+      <color rgb="FFFF9B9B"/>
+    </mruColors>
+  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -427,57 +614,71 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L33"/>
+  <dimension ref="A1:M61"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A7" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="G24" sqref="G24"/>
+      <selection activeCell="J16" sqref="J16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
+    <col min="1" max="1" width="15.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="7.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="6.5703125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="7.7109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="6.5703125" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="16.7109375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="8.7109375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="12.28515625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="4.42578125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="6.5703125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="5.5703125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="6.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A1" s="2" t="s">
+    <row r="1" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="E1" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="F1" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="G1" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="H1" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="2" t="s">
+      <c r="I1" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="2" t="s">
+      <c r="J1" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="2" t="s">
+      <c r="K1" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="L1" s="2" t="s">
+      <c r="L1" s="5" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A2" s="1">
+      <c r="M1" s="5" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A2" s="6">
         <v>43160</v>
       </c>
       <c r="B2">
@@ -513,15 +714,15 @@
         <v>150</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A3" s="1">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A3" s="6">
         <v>43191</v>
       </c>
       <c r="B3">
         <v>20900</v>
       </c>
       <c r="C3">
-        <f t="shared" ref="C3:C8" si="0">ROUND(B3*7%,0)</f>
+        <f t="shared" ref="C3:C7" si="0">ROUND(B3*7%,0)</f>
         <v>1463</v>
       </c>
       <c r="D3">
@@ -550,8 +751,8 @@
         <v>150</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A4" s="1">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A4" s="6">
         <v>43221</v>
       </c>
       <c r="B4">
@@ -587,8 +788,8 @@
         <v>150</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A5" s="1">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A5" s="6">
         <v>43252</v>
       </c>
       <c r="B5">
@@ -624,8 +825,8 @@
         <v>150</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A6" s="1">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A6" s="6">
         <v>43282</v>
       </c>
       <c r="B6">
@@ -661,8 +862,8 @@
         <v>150</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A7" s="1">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A7" s="6">
         <v>43313</v>
       </c>
       <c r="B7">
@@ -698,8 +899,8 @@
         <v>150</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A8" s="1">
+    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A8" s="6">
         <v>43344</v>
       </c>
       <c r="B8">
@@ -735,8 +936,8 @@
         <v>150</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A9" s="1">
+    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A9" s="6">
         <v>43374</v>
       </c>
       <c r="B9">
@@ -772,8 +973,8 @@
         <v>150</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A10" s="1">
+    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A10" s="6">
         <v>43405</v>
       </c>
       <c r="B10">
@@ -809,8 +1010,8 @@
         <v>150</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A11" s="1">
+    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A11" s="6">
         <v>43435</v>
       </c>
       <c r="B11">
@@ -846,8 +1047,8 @@
         <v>150</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A12" s="1">
+    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A12" s="6">
         <v>43466</v>
       </c>
       <c r="B12">
@@ -883,8 +1084,8 @@
         <v>150</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A13" s="1">
+    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A13" s="6">
         <v>43497</v>
       </c>
       <c r="B13">
@@ -920,8 +1121,8 @@
         <v>150</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
+    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="G14">
@@ -931,8 +1132,8 @@
         <v>125</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
+    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="G15">
@@ -942,160 +1143,436 @@
         <v>86</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
+    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A16" s="1" t="s">
         <v>12</v>
       </c>
       <c r="G16">
         <v>6908</v>
       </c>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
+    <row r="17" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A17" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="G17">
+        <f t="shared" ref="G17" si="7">SUM(B17:F17)</f>
+        <v>0</v>
+      </c>
+      <c r="J17">
+        <f t="shared" ref="J17" si="8">ROUND(SUM(B17:C17)*10%,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A18" s="1" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A19" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="G17">
+      <c r="G19">
         <v>5000</v>
       </c>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
+    <row r="20" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A20" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="G18">
+      <c r="G20">
         <v>15</v>
       </c>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A19" t="s">
+    <row r="21" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A21" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="G19">
+      <c r="G21">
         <v>35171</v>
       </c>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="G20">
-        <f>SUM(G2:G19)</f>
+    <row r="22" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A22" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="B22" s="2">
+        <f t="shared" ref="B22:F22" si="9">SUM(B2:B21)</f>
+        <v>255600</v>
+      </c>
+      <c r="C22" s="2">
+        <f t="shared" si="9"/>
+        <v>20054</v>
+      </c>
+      <c r="D22" s="2">
+        <f t="shared" si="9"/>
+        <v>64800</v>
+      </c>
+      <c r="E22" s="2">
+        <f t="shared" si="9"/>
+        <v>16200</v>
+      </c>
+      <c r="F22" s="2">
+        <f t="shared" si="9"/>
+        <v>1275</v>
+      </c>
+      <c r="G22" s="2">
+        <f>SUM(G2:G21)</f>
         <v>407272</v>
       </c>
-      <c r="H20">
-        <f t="shared" ref="H20:K20" si="7">SUM(H2:H17)</f>
+      <c r="H22" s="2">
+        <f t="shared" ref="H22:M22" si="10">SUM(H2:H19)</f>
         <v>0</v>
       </c>
-      <c r="I20">
-        <f t="shared" si="7"/>
+      <c r="I22" s="2">
+        <f t="shared" si="10"/>
         <v>360</v>
       </c>
-      <c r="J20">
-        <f t="shared" si="7"/>
+      <c r="J22" s="2">
+        <f t="shared" si="10"/>
         <v>27780</v>
       </c>
-      <c r="K20">
-        <f t="shared" si="7"/>
+      <c r="K22" s="2">
+        <f t="shared" si="10"/>
         <v>1800</v>
       </c>
-    </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="F23" t="s">
+      <c r="L22" s="2">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="M22" s="2">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="G24" s="17" t="s">
+        <v>28</v>
+      </c>
+      <c r="H24" s="17" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="25" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="F25" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="G23">
-        <f>G20</f>
+      <c r="G25">
+        <f>G22-M22</f>
         <v>407272</v>
       </c>
-    </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="F24" t="s">
+      <c r="H25" s="22">
+        <f>G25</f>
+        <v>407272</v>
+      </c>
+    </row>
+    <row r="26" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="F26" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="G24">
-        <v>-40000</v>
-      </c>
-    </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="F25" t="s">
+      <c r="H26" s="22">
+        <v>40000</v>
+      </c>
+    </row>
+    <row r="27" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="F27" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="G25">
-        <f>K20*-1</f>
-        <v>-1800</v>
-      </c>
-    </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="F26" t="s">
+      <c r="G27">
+        <f>K22</f>
+        <v>1800</v>
+      </c>
+      <c r="H27" s="22">
+        <f>G27</f>
+        <v>1800</v>
+      </c>
+    </row>
+    <row r="28" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="F28" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="G26">
-        <v>-2400</v>
-      </c>
-    </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="F27" t="s">
+      <c r="G28">
+        <v>2400</v>
+      </c>
+      <c r="H28" s="22">
+        <f>G28</f>
+        <v>2400</v>
+      </c>
+    </row>
+    <row r="29" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="F29" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="H29" s="22">
+        <f>IF(G29&gt;200000,200000,G29)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="F30" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="H30" s="22">
+        <f>_xlfn.IFNA(IF((G30-J22)&gt;SUM(D2:D21),SUM(D2:D21),IF((G30-J22)&lt;0,0,(G30-J22))),0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F31" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="G27">
-        <f>SUM(G23:G26)</f>
+      <c r="G31" s="2">
+        <f>SUM(G25:G28)</f>
+        <v>411472</v>
+      </c>
+      <c r="H31" s="20">
+        <f>H25-SUM(H26:H30)</f>
         <v>363072</v>
       </c>
     </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="F28" t="s">
+    <row r="32" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="F32" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="G28">
-        <f>38028</f>
-        <v>38028</v>
-      </c>
-    </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="F29" t="s">
+      <c r="H32" s="23"/>
+    </row>
+    <row r="33" spans="6:8" x14ac:dyDescent="0.25">
+      <c r="F33" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="G33" s="15">
+        <f>I22</f>
+        <v>360</v>
+      </c>
+      <c r="H33" s="23"/>
+    </row>
+    <row r="34" spans="6:8" x14ac:dyDescent="0.25">
+      <c r="F34" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="H34" s="23"/>
+    </row>
+    <row r="35" spans="6:8" x14ac:dyDescent="0.25">
+      <c r="F35" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="G35">
+        <v>12252</v>
+      </c>
+      <c r="H35" s="23"/>
+    </row>
+    <row r="36" spans="6:8" x14ac:dyDescent="0.25">
+      <c r="F36" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="H36" s="23"/>
+    </row>
+    <row r="37" spans="6:8" x14ac:dyDescent="0.25">
+      <c r="F37" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="H37" s="23"/>
+    </row>
+    <row r="38" spans="6:8" x14ac:dyDescent="0.25">
+      <c r="F38" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="H38" s="23"/>
+    </row>
+    <row r="39" spans="6:8" x14ac:dyDescent="0.25">
+      <c r="F39" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="H39" s="23"/>
+    </row>
+    <row r="40" spans="6:8" x14ac:dyDescent="0.25">
+      <c r="F40" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="H40" s="23"/>
+    </row>
+    <row r="41" spans="6:8" x14ac:dyDescent="0.25">
+      <c r="F41" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="H41" s="23">
+        <f>G41+IF(H45=50000,G45-50000,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="6:8" x14ac:dyDescent="0.25">
+      <c r="F42" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="H42" s="23"/>
+    </row>
+    <row r="43" spans="6:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F43" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="G43" s="2">
+        <f>SUM(G33:G40,H41,G42)</f>
+        <v>12612</v>
+      </c>
+      <c r="H43" s="18">
+        <f>IF(G43&gt;150000,150000,G43)</f>
+        <v>12612</v>
+      </c>
+    </row>
+    <row r="44" spans="6:8" x14ac:dyDescent="0.25">
+      <c r="F44" s="9"/>
+      <c r="G44" s="3"/>
+      <c r="H44" s="3"/>
+    </row>
+    <row r="45" spans="6:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F45" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="G45" s="2">
+        <f>J22</f>
+        <v>27780</v>
+      </c>
+      <c r="H45" s="20">
+        <f>IF(G45&gt;50000,50000,G45)</f>
+        <v>27780</v>
+      </c>
+    </row>
+    <row r="46" spans="6:8" x14ac:dyDescent="0.25">
+      <c r="F46" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="G29">
-        <f>H20</f>
+    </row>
+    <row r="47" spans="6:8" x14ac:dyDescent="0.25">
+      <c r="F47" s="10" t="s">
+        <v>40</v>
+      </c>
+      <c r="G47">
+        <f>H22</f>
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="F30" t="s">
+    <row r="48" spans="6:8" x14ac:dyDescent="0.25">
+      <c r="F48" s="10" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="49" spans="6:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F49" s="11" t="s">
+        <v>39</v>
+      </c>
+      <c r="G49" s="2">
+        <f>SUM(G47:G48)</f>
+        <v>0</v>
+      </c>
+      <c r="H49" s="19">
+        <f>IF(G49&lt;25000,G49,25000)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="6:8" x14ac:dyDescent="0.25">
+      <c r="F50" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="G50" s="3"/>
+      <c r="H50" s="3"/>
+    </row>
+    <row r="51" spans="6:8" x14ac:dyDescent="0.25">
+      <c r="F51" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="G51" s="3"/>
+      <c r="H51" s="3"/>
+    </row>
+    <row r="52" spans="6:8" x14ac:dyDescent="0.25">
+      <c r="F52" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="G52" s="3"/>
+      <c r="H52" s="3"/>
+    </row>
+    <row r="53" spans="6:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F53" s="13" t="s">
+        <v>45</v>
+      </c>
+      <c r="G53" s="14"/>
+      <c r="H53" s="21">
+        <f>SUM(H43,H45,H49,H50,H51,H52)</f>
+        <v>40392</v>
+      </c>
+    </row>
+    <row r="54" spans="6:8" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="F54" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="G30">
-        <f>G27-G28-G29</f>
-        <v>325044</v>
-      </c>
-    </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="F31" s="3">
+      <c r="H54">
+        <f>H31-H53</f>
+        <v>322680</v>
+      </c>
+    </row>
+    <row r="55" spans="6:8" x14ac:dyDescent="0.25">
+      <c r="F55" s="12">
         <v>0.2</v>
       </c>
-      <c r="G31">
-        <f>IF(G32&gt;=12500,(G30-500000)*0.2,0)</f>
+      <c r="G55">
+        <f>IF(G56&gt;=12500,(H54-500000)*0.2,0)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="F32" s="3">
+    <row r="56" spans="6:8" x14ac:dyDescent="0.25">
+      <c r="F56" s="12">
         <v>0.05</v>
       </c>
-      <c r="G32">
-        <f>IF((G30-250000)*0.05&gt;12500,12500,(G30-250000)*0.05)</f>
-        <v>3752.2000000000003</v>
-      </c>
-      <c r="H32">
-        <f>G32*4%</f>
-        <v>150.08800000000002</v>
-      </c>
-    </row>
-    <row r="33" spans="7:7" x14ac:dyDescent="0.25">
-      <c r="G33">
-        <f>SUM(G31:G32)</f>
-        <v>3752.2000000000003</v>
+      <c r="G56">
+        <f>IF((H54-250000)*0.05&gt;12500,12500,(H54-250000)*0.05)</f>
+        <v>3634</v>
+      </c>
+    </row>
+    <row r="57" spans="6:8" x14ac:dyDescent="0.25">
+      <c r="F57" s="12" t="s">
+        <v>26</v>
+      </c>
+      <c r="G57">
+        <f>IF(H54&lt;=350000,2500,0)</f>
+        <v>2500</v>
+      </c>
+    </row>
+    <row r="58" spans="6:8" x14ac:dyDescent="0.25">
+      <c r="F58" s="12"/>
+      <c r="G58">
+        <f>SUM(G55:G56)-G57</f>
+        <v>1134</v>
+      </c>
+    </row>
+    <row r="59" spans="6:8" x14ac:dyDescent="0.25">
+      <c r="F59" s="1"/>
+      <c r="G59">
+        <f>IF(G58&lt;0,0,ROUND(G58,1))</f>
+        <v>1134</v>
+      </c>
+      <c r="H59" s="16">
+        <f>IF(ROUND(G59,-1)&lt;G59,ROUND(G59,-1)+10,ROUND(G59,-1))</f>
+        <v>1140</v>
+      </c>
+    </row>
+    <row r="60" spans="6:8" x14ac:dyDescent="0.25">
+      <c r="F60" t="s">
+        <v>46</v>
+      </c>
+      <c r="H60">
+        <f>L22</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="6:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="H61" s="2">
+        <f>H59-H60</f>
+        <v>1140</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <printOptions gridLines="1"/>
+  <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
+  <pageSetup paperSize="9" orientation="landscape" r:id="rId1"/>
 </worksheet>
 </file>